--- a/OPM经济数值/章节目标设定.xlsx
+++ b/OPM经济数值/章节目标设定.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36520" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-37620" yWindow="500" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1827,6 +1827,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1837,18 +1849,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2232,7 +2232,7 @@
       <c r="A10" s="2">
         <v>200</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="21">
         <v>0.1</v>
       </c>
       <c r="C10" s="2">
@@ -2247,7 +2247,7 @@
       <c r="A11" s="2">
         <v>50</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>0.1</v>
       </c>
       <c r="C11" s="2">
@@ -2262,7 +2262,7 @@
       <c r="A12" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>0.3</v>
       </c>
       <c r="C12" s="2">
@@ -2277,7 +2277,7 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>0.6</v>
       </c>
       <c r="C13" s="2">
@@ -2298,7 +2298,7 @@
       <c r="A16" s="2">
         <v>150</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="23">
         <v>0.1</v>
       </c>
       <c r="C16" s="2">
@@ -2313,7 +2313,7 @@
       <c r="A17" s="2">
         <v>35</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="24">
         <v>0.1</v>
       </c>
       <c r="C17" s="2">
@@ -2328,7 +2328,7 @@
       <c r="A18" s="2">
         <v>22</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="24">
         <v>0.25</v>
       </c>
       <c r="C18" s="2">
@@ -2343,7 +2343,7 @@
       <c r="A19" s="2">
         <v>7.5</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>0.65</v>
       </c>
       <c r="C19" s="2">
@@ -2355,7 +2355,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="28">
+      <c r="B20" s="24">
         <f>SUM(B17:B19)</f>
         <v>1</v>
       </c>
@@ -2375,8 +2375,8 @@
   <dimension ref="A1:BQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO8" sqref="BO8"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2389,113 +2389,112 @@
     <col min="51" max="51" width="23.6640625" customWidth="1"/>
     <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="32" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="57" max="69" width="6.33203125" customWidth="1"/>
+    <col min="54" max="69" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="21" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22" t="s">
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21" t="s">
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
       <c r="AU1" s="7"/>
-      <c r="AV1" s="23" t="s">
+      <c r="AV1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
       <c r="BA1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BB1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21" t="s">
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21" t="s">
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21" t="s">
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21" t="s">
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="BP1" s="21"/>
+      <c r="BP1" s="25"/>
     </row>
     <row r="2" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -3207,10 +3206,12 @@
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
+      <c r="BJ5" s="2">
+        <v>5</v>
+      </c>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BM5" s="2"/>
       <c r="BN5" s="2"/>
@@ -5574,69 +5575,69 @@
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="24" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="21" t="s">
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="24" t="s">
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24" t="s">
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24" t="s">
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="21" t="s">
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21" t="s">
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="21"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
       <c r="AU20" t="s">
         <v>162</v>
       </c>
